--- a/biology/Médecine/Classe_ATC_A07/Classe_ATC_A07.xlsx
+++ b/biology/Médecine/Classe_ATC_A07/Classe_ATC_A07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC A07, dénommée « Antidiarrhéiques, anti-inflammatoires intestinaux/agents anti-infectieux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA07[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC A07, dénommée « Antidiarrhéiques, anti-inflammatoires intestinaux/agents anti-infectieux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA07. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A07AA Antibiotiques
-A07AA01 Néomycine
+          <t>A07AA Antibiotiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A07AA01 Néomycine
 A07AA02 Nystatine
 A07AA03 Natamycine
 A07AA04 Streptomycine
@@ -535,19 +552,121 @@
 QA07AA94 Enramycine
 QA07AA95 Avilamycine
 QA07AA98 Colistine, associations avec d'autres antibactériens
-QA07AA99 Antibiotiques, associations
-A07AB Sulfamidés
-A07AB02 Phtalylsulfathiazole
+QA07AA99 Antibiotiques, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A07A Antiseptiques intestinaux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A07AB Sulfamidés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A07AB02 Phtalylsulfathiazole
 A07AB03 Sulfaguanidine
 A07AB04 Succinylsulfathiazole
 QA07AB20 Sulfamides, associations
 QA07AB90 Formosulfathiazole
 QA07AB92 Phthalylsulfathiazole, associations
-QA07AB99 Associations
-A07AC Dérivés de l'imidazole
-A07AC01 Miconazole
-A07AX Autres antiseptiques intestinaux
-A07AX01 Broxyquinoline
+QA07AB99 Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A07A Antiseptiques intestinaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A07AC Dérivés de l'imidazole</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A07AC01 Miconazole</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A07A Antiseptiques intestinaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A07AX Autres antiseptiques intestinaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A07AX01 Broxyquinoline
 A07AX02 Acétarsol
 A07AX03 Nifuroxazide
 A07AX04 Nifurzide
@@ -555,38 +674,76 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A07</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>A07B Absorbants intestinaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A07BA Préparations à base de charbon activé
-A07BA01 Charbon médicinal
-A07BA51 Charbon médicinal, associations
-A07BB Préparations à base de bismuth
-A07BC Autres absorbants intestinaux
-A07BC01 Pectine
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A07BA Préparations à base de charbon activé</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A07BA01 Charbon médicinal
+A07BA51 Charbon médicinal, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A07B Absorbants intestinaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A07BC Autres absorbants intestinaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A07BC01 Pectine
 A07BC02 kaolin
 A07BC03 Crospovidone
 A07BC04 Attapulgite
@@ -596,68 +753,113 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A07</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>A07C Électrolytes et hydrates de carbone</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A07CA Formules de sels réhydratants
-(Le sous groupe A07CA est réservé à la classification ATC humaine)
-QA07CQ Formules de réhydratation orale à usage vétérinaire
-QA07CQ01 Électrolytes oraux
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A07CA Formules de sels réhydratants</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Le sous groupe A07CA est réservé à la classification ATC humaine)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A07C Électrolytes et hydrates de carbone</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>QA07CQ Formules de réhydratation orale à usage vétérinaire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>QA07CQ01 Électrolytes oraux
 QA07CQ02 Électrolytes oraux et hydrates de carbone</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A07</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>A07D Antipropulsivants</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A07DA Antipropulsivants
-A07DA01 Diphénoxylate
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A07DA Antipropulsivants</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A07DA01 Diphénoxylate
 A07DA02 Opium
 A07DA03 Lopéramide
 A07DA04 Difénoxine
@@ -668,112 +870,195 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A07</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>A07E Anti-inflammatoires intestinaux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A07EA Corticostéroïdes locaux
-A07EA01 Prednisolone
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A07EA Corticostéroïdes locaux</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A07EA01 Prednisolone
 A07EA02 Hydrocortisone
 A07EA03 Prednisone
 A07EA04 Bétaméthasone
 A07EA05 Tixocortol
 A07EA06 Budésonide
-A07EA07 Béclométasone
-A07EB Antiallergiques, à l'exclusion des corticostéroïdes
-A07EB01 Acide cromoglicique
-A07EC Acide aminosalicylique et agents apparentés
-A07EC01 Sulfasalazine
+A07EA07 Béclométasone</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A07E Anti-inflammatoires intestinaux</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A07EB Antiallergiques, à l'exclusion des corticostéroïdes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>A07EB01 Acide cromoglicique</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A07E Anti-inflammatoires intestinaux</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A07EC Acide aminosalicylique et agents apparentés</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>A07EC01 Sulfasalazine
 A07EC02 Mésalazine
 A07EC03 Olsalazine
 A07EC04 Balsalazide</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A07</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>A07F Micro-organismes antidiarrhéiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A07FA Micro-organismes antidiarrhéiques
-A07FA01 Organismes producteurs d'acide lactique
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A07FA Micro-organismes antidiarrhéiques</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A07FA01 Organismes producteurs d'acide lactique
 A07FA02 Saccharomyces boulardii
 A07FA51 Organismes producteurs d'acide lactique, associations
 QA07FA90 Probiotiques</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A07</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>A07X Autres antidiarrhéiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>A07XA Autres antidiarrhéiques
-A07XA01 Tannalbumine
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A07XA Autres antidiarrhéiques</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>A07XA01 Tannalbumine
 A07XA02 Ceratonia
 A07XA03 Dérivés du calcium
 A07XA04 Racécadotril
